--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/Intro-DS-F23/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/CAIS117-F23/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E11B32F-CE70-F942-B0FC-008F60D25BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C035331A-4475-D84C-8FF1-2E548528F632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11920" yWindow="500" windowWidth="16880" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -44,145 +44,12 @@
     <t>Reading</t>
   </si>
   <si>
-    <t>Welcome - Ice Breakers, Learning Goals, Worries, What is DS, examples, ethics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ch 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data - Vocab 
-Vis - Reading a graphic </t>
-  </si>
-  <si>
-    <t>Ch 2</t>
-  </si>
-  <si>
-    <t>hw1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vis - Composing a graphic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vis - Usefulness and wrong turns </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mini-Project 1 </t>
-  </si>
-  <si>
-    <t>q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intro to coding (variables, comp arch), R / R Studio / markdown </t>
-  </si>
-  <si>
-    <t>Appendix B, D</t>
-  </si>
-  <si>
-    <t>hw2</t>
-  </si>
-  <si>
-    <t>Grammar of Graphics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ch 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grammar of Graphics </t>
-  </si>
-  <si>
-    <t>q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Wrangling - one table </t>
-  </si>
-  <si>
-    <t>Ch 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ch 4 </t>
-  </si>
-  <si>
-    <t>hw3</t>
-  </si>
-  <si>
     <t xml:space="preserve">NO CLASS - UNIVERSITY HOLIDAY </t>
   </si>
   <si>
-    <t>Mini-Project 2</t>
-  </si>
-  <si>
-    <t>q3</t>
-  </si>
-  <si>
-    <t>Data Wrangling - multiple tables</t>
-  </si>
-  <si>
-    <t>Ch 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ch 5 </t>
-  </si>
-  <si>
-    <t>hw4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tidy data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ch 6 </t>
-  </si>
-  <si>
-    <t>q4</t>
-  </si>
-  <si>
-    <t>Ch 6</t>
-  </si>
-  <si>
-    <t>Mini-Project 3</t>
-  </si>
-  <si>
-    <t>hw5</t>
-  </si>
-  <si>
-    <t>Functions and Iteration</t>
-  </si>
-  <si>
-    <t>Ch 7</t>
-  </si>
-  <si>
-    <t>q5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functions and Iteration </t>
-  </si>
-  <si>
     <t>proj</t>
   </si>
   <si>
-    <t>Analysis Process</t>
-  </si>
-  <si>
-    <t>Mini-Project 4</t>
-  </si>
-  <si>
-    <t>Advanced Topics - VA / interactive VIS</t>
-  </si>
-  <si>
-    <t>Ch 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced Topics - Databases / SQL </t>
-  </si>
-  <si>
-    <t>Ch 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced Topics - ML / AI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ch 11/12 </t>
-  </si>
-  <si>
     <t xml:space="preserve">proj </t>
   </si>
   <si>
@@ -198,56 +65,212 @@
     <t>M</t>
   </si>
   <si>
-    <t>Final Project Presentations</t>
-  </si>
-  <si>
     <t>class-row</t>
   </si>
   <si>
     <t>class-topic</t>
   </si>
   <si>
+    <t>italic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">italic </t>
+  </si>
+  <si>
+    <t>Assign-OUT</t>
+  </si>
+  <si>
+    <t>Assign-DUE</t>
+  </si>
+  <si>
+    <t>noClass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noClass </t>
+  </si>
+  <si>
+    <t>presy</t>
+  </si>
+  <si>
+    <t>NO CLASS - Personal Day</t>
+  </si>
+  <si>
+    <t>User Input</t>
+  </si>
+  <si>
+    <t>Numbers</t>
+  </si>
+  <si>
+    <t>Mathematical operators</t>
+  </si>
+  <si>
+    <t>Conditional ("if") statements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python intro, Pair programming </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How computers work </t>
+  </si>
+  <si>
+    <t>Welcome - Ice breakers, Learning goals, Worries, What is CS</t>
+  </si>
+  <si>
+    <t>Strings and string methods</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>For loops and While loops</t>
+  </si>
+  <si>
+    <t>The random module</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Writing functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More functions </t>
+  </si>
+  <si>
+    <t>Lists</t>
+  </si>
+  <si>
+    <t>Dictionaries</t>
+  </si>
+  <si>
+    <t>Code reuse</t>
+  </si>
+  <si>
+    <t>Recursion pt. 1</t>
+  </si>
+  <si>
+    <t>Recursion pt. 2</t>
+  </si>
+  <si>
+    <t>Classes pt. 1: Attributes and Methods</t>
+  </si>
+  <si>
+    <t>Classes pt. 2: OOP</t>
+  </si>
+  <si>
+    <t>Classes pt 3: Inheritance</t>
+  </si>
+  <si>
+    <t>Python packages and graphics</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>Interaction</t>
+  </si>
+  <si>
+    <t>Paper prototyping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working with files </t>
+  </si>
+  <si>
+    <t>Introduction to algorithms</t>
+  </si>
+  <si>
+    <t>Handling exceptions</t>
+  </si>
+  <si>
+    <t>Advanced Topics - HCI</t>
+  </si>
+  <si>
+    <t>Final project workshop</t>
+  </si>
+  <si>
+    <t>Final Project Demo Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO CLASS - Everyone take a personal day </t>
+  </si>
+  <si>
+    <t>inClass</t>
+  </si>
+  <si>
+    <t>Code for Good Spotlight</t>
+  </si>
+  <si>
     <t>speaker</t>
   </si>
   <si>
-    <t>italic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">italic </t>
-  </si>
-  <si>
-    <t>Assign-OUT</t>
-  </si>
-  <si>
-    <t>Assign-DUE</t>
-  </si>
-  <si>
-    <t>noClass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noClass </t>
-  </si>
-  <si>
-    <t>presy</t>
-  </si>
-  <si>
-    <t>Guest Speaker: Data Science for Public Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guest Speaker: Visualizing Boston City Data </t>
-  </si>
-  <si>
-    <t>Guest Speaker: Analyzing the Electrical Grid</t>
-  </si>
-  <si>
-    <t>NO CLASS - Personal Day</t>
+    <t xml:space="preserve">The main() function </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra Credit Midterm </t>
+  </si>
+  <si>
+    <t>Wrap-up</t>
+  </si>
+  <si>
+    <t>hw01</t>
+  </si>
+  <si>
+    <t>hw00</t>
+  </si>
+  <si>
+    <t>hw02</t>
+  </si>
+  <si>
+    <t>hw03</t>
+  </si>
+  <si>
+    <t>hw04</t>
+  </si>
+  <si>
+    <t>hw05</t>
+  </si>
+  <si>
+    <t>hw06</t>
+  </si>
+  <si>
+    <t>hw07</t>
+  </si>
+  <si>
+    <t>ic01</t>
+  </si>
+  <si>
+    <t>ic02</t>
+  </si>
+  <si>
+    <t>ic03</t>
+  </si>
+  <si>
+    <t>ic04</t>
+  </si>
+  <si>
+    <t>ic05</t>
+  </si>
+  <si>
+    <t>ic06</t>
+  </si>
+  <si>
+    <t>exam</t>
+  </si>
+  <si>
+    <t>proj-proposal</t>
+  </si>
+  <si>
+    <t>proj-prototypeI</t>
+  </si>
+  <si>
+    <t>proj-prototypeII</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -323,8 +346,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF274E13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +417,18 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -362,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -378,17 +458,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -402,6 +476,38 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,8 +728,8 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -637,14 +743,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>55</v>
+      <c r="A1" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -656,764 +762,752 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="B2" s="6"/>
       <c r="C2" s="4" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4">
         <v>9.06</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="6"/>
       <c r="C3" s="4" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4">
         <v>9.08</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="C4" s="7" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
         <v>9.11</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>6</v>
+      <c r="E4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="H4" s="16" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3"/>
       <c r="C5" s="7" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
         <v>9.1300000000000008</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>6</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7">
         <v>9.15</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>10</v>
+      <c r="E6" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="H6" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="9">
+        <v>9.18</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="14"/>
+      <c r="C8" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="10">
-        <v>9.18</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="16"/>
-      <c r="C8" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D8" s="4">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="E8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="16" t="s">
-        <v>57</v>
+      <c r="B9" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D9" s="4">
         <v>9.2200000000000006</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>66</v>
+      <c r="E9" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
         <v>9.25</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>16</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="7" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
         <v>9.27</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>16</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="16"/>
       <c r="C12" s="7" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
         <v>9.2899999999999991</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="E12" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="C13" s="4" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D13" s="4">
         <v>10.02</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="E13" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="4" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D14" s="4">
         <v>10.039999999999999</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="16"/>
       <c r="C15" s="4" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D15" s="4">
         <v>10.06</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="A16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="9">
+        <v>10.09</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="10">
-        <v>10.09</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="18" t="s">
-        <v>40</v>
-      </c>
       <c r="C17" s="7" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7">
         <v>10.11</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>24</v>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="18" t="s">
-        <v>40</v>
-      </c>
+      <c r="B18" s="16"/>
       <c r="C18" s="7" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
         <v>10.130000000000001</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>24</v>
+      <c r="E18" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="4" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D19" s="4">
         <v>10.16</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="4" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D20" s="4">
         <v>10.18</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="16"/>
       <c r="C21" s="4" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D21" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="E21" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="C22" s="7" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D22" s="7">
         <v>10.23</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>31</v>
+      <c r="E22" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="C23" s="7" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D23" s="7">
         <v>10.25</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="E23" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="18" t="s">
-        <v>57</v>
+      <c r="B24" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D24" s="7">
         <v>10.27</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>65</v>
+      <c r="E24" s="26" t="s">
+        <v>57</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>29</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="16"/>
       <c r="C25" s="4" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D25" s="4">
         <v>10.3</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="E25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="18" t="s">
-        <v>40</v>
-      </c>
+      <c r="B26" s="16"/>
       <c r="C26" s="4" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D26" s="4">
         <v>11.01</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>34</v>
+      <c r="E26" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="B27" s="7"/>
       <c r="C27" s="4" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D27" s="4">
         <v>11.03</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>34</v>
+      <c r="E27" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="7" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D28" s="7">
         <v>11.06</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="7" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D29" s="7">
         <v>11.08</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="10">
+      <c r="A30" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="9">
         <v>11.1</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" s="10"/>
+      <c r="E30" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="C31" s="4" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D31" s="4">
         <v>11.13</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="E31" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="16"/>
       <c r="C32" s="4" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D32" s="4">
         <v>11.15</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="4" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D33" s="4">
         <v>11.17</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
       <c r="H33" s="4" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="7" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D34" s="7">
         <v>11.2</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>41</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="H34" s="16"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C35" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="7">
+      <c r="A35" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="18">
         <v>11.22</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="E35" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="10">
+      <c r="A36" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="9">
         <v>11.24</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
+      <c r="E36" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="18" t="s">
-        <v>40</v>
-      </c>
+      <c r="B37" s="16"/>
       <c r="C37" s="4" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D37" s="4">
         <v>11.27</v>
       </c>
-      <c r="E37" s="15" t="s">
-        <v>42</v>
+      <c r="E37" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="18" t="s">
-        <v>40</v>
+      <c r="B38" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D38" s="4">
         <v>11.29</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="22" t="s">
         <v>42</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="H38" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="18" t="s">
-        <v>57</v>
+      <c r="B39" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D39" s="4">
         <v>12.01</v>
       </c>
-      <c r="E39" s="13" t="s">
-        <v>67</v>
+      <c r="E39" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
+      <c r="H39" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="7" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D40" s="7">
         <v>12.04</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>44</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="7" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D41" s="7">
         <v>12.06</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>46</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="C42" s="7" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D42" s="7">
         <v>12.08</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>48</v>
+      <c r="E42" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="H42" s="16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="A43" s="16"/>
+      <c r="B43" s="7"/>
       <c r="C43" s="4" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D43" s="4">
         <v>12.11</v>
       </c>
-      <c r="E43" s="15" t="s">
-        <v>54</v>
+      <c r="E43" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>40</v>
+      <c r="A44" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D44" s="4">
         <v>12.13</v>
       </c>
-      <c r="E44" s="15" t="s">
-        <v>54</v>
+      <c r="E44" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>49</v>
+      <c r="A45" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D45" s="4">
         <v>12.15</v>
       </c>
-      <c r="E45" s="15" t="s">
-        <v>54</v>
+      <c r="E45" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
+      <c r="H45" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="E46" s="8"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/CAIS117-F23/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C035331A-4475-D84C-8FF1-2E548528F632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3396760B-5991-834C-A7C0-F6C4B26348B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11920" yWindow="500" windowWidth="16880" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -233,44 +233,50 @@
     <t>hw06</t>
   </si>
   <si>
+    <t>ic01</t>
+  </si>
+  <si>
+    <t>ic02</t>
+  </si>
+  <si>
+    <t>ic03</t>
+  </si>
+  <si>
+    <t>ic04</t>
+  </si>
+  <si>
+    <t>ic05</t>
+  </si>
+  <si>
+    <t>ic06</t>
+  </si>
+  <si>
+    <t>exam</t>
+  </si>
+  <si>
+    <t>proj-proposal</t>
+  </si>
+  <si>
+    <t>proj-prototypeI</t>
+  </si>
+  <si>
     <t>hw07</t>
   </si>
   <si>
-    <t>ic01</t>
-  </si>
-  <si>
-    <t>ic02</t>
-  </si>
-  <si>
-    <t>ic03</t>
-  </si>
-  <si>
-    <t>ic04</t>
-  </si>
-  <si>
-    <t>ic05</t>
-  </si>
-  <si>
-    <t>ic06</t>
-  </si>
-  <si>
-    <t>exam</t>
-  </si>
-  <si>
-    <t>proj-proposal</t>
-  </si>
-  <si>
-    <t>proj-prototypeI</t>
-  </si>
-  <si>
-    <t>proj-prototypeII</t>
+    <t>hw02, cfg01</t>
+  </si>
+  <si>
+    <t>cfg02</t>
+  </si>
+  <si>
+    <t>proj-prototypeII, cfg03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -342,13 +348,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF274E13"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -442,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -476,36 +475,48 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -728,8 +739,8 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -739,7 +750,7 @@
     <col min="5" max="5" width="34.6640625" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -764,7 +775,7 @@
       <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -783,7 +794,7 @@
       <c r="G2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="6"/>
@@ -800,7 +811,7 @@
       <c r="G3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -814,12 +825,12 @@
       <c r="D4" s="7">
         <v>9.11</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="H4" s="16" t="s">
-        <v>67</v>
+      <c r="H4" s="28" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -849,7 +860,7 @@
       <c r="G6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -871,7 +882,7 @@
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="14"/>
@@ -886,7 +897,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="14" t="s">
@@ -898,15 +909,15 @@
       <c r="D9" s="4">
         <v>9.2200000000000006</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>54</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>61</v>
+      <c r="H9" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -943,14 +954,14 @@
       <c r="D12" s="7">
         <v>9.2899999999999991</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="24" t="s">
         <v>56</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -964,13 +975,13 @@
       <c r="D13" s="4">
         <v>10.02</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
-        <v>68</v>
+      <c r="H13" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -985,7 +996,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="16"/>
@@ -1002,7 +1013,7 @@
       <c r="G15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1024,7 +1035,7 @@
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="16" t="s">
@@ -1036,11 +1047,11 @@
       <c r="D17" s="7">
         <v>10.11</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>69</v>
+      <c r="H17" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1051,13 +1062,13 @@
       <c r="D18" s="7">
         <v>10.130000000000001</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="24" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="8" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1073,7 +1084,7 @@
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="4" t="s">
@@ -1087,7 +1098,7 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="16"/>
@@ -1097,12 +1108,12 @@
       <c r="D21" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="23" t="s">
         <v>35</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1116,12 +1127,12 @@
       <c r="D22" s="7">
         <v>10.23</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="20" t="s">
         <v>36</v>
       </c>
       <c r="F22" s="7"/>
-      <c r="H22" s="7" t="s">
-        <v>70</v>
+      <c r="H22" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1138,10 +1149,13 @@
         <v>54</v>
       </c>
       <c r="F23" s="7"/>
+      <c r="H23" s="31" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>8</v>
@@ -1149,13 +1163,13 @@
       <c r="D24" s="7">
         <v>10.27</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="25" t="s">
         <v>57</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="16"/>
@@ -1170,7 +1184,7 @@
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="16"/>
@@ -1185,7 +1199,7 @@
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="7"/>
@@ -1202,8 +1216,8 @@
       <c r="G27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>66</v>
+      <c r="H27" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1232,7 +1246,7 @@
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
@@ -1252,7 +1266,7 @@
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="H30" s="30"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="16" t="s">
@@ -1264,13 +1278,13 @@
       <c r="D31" s="4">
         <v>11.13</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="4" t="s">
-        <v>71</v>
+      <c r="H31" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1286,7 +1300,7 @@
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="4" t="s">
@@ -1300,8 +1314,8 @@
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="4" t="s">
-        <v>74</v>
+      <c r="H33" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1314,7 +1328,7 @@
       <c r="E34" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H34" s="16"/>
+      <c r="H34" s="28"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
@@ -1323,18 +1337,18 @@
       <c r="B35" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="17">
         <v>11.22</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="32"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
@@ -1354,7 +1368,7 @@
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+      <c r="H36" s="30"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="16"/>
@@ -1364,12 +1378,12 @@
       <c r="D37" s="4">
         <v>11.27</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E37" s="23" t="s">
         <v>47</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="16" t="s">
@@ -1381,13 +1395,13 @@
       <c r="D38" s="4">
         <v>11.29</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="21" t="s">
         <v>42</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="4" t="s">
-        <v>72</v>
+      <c r="H38" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1400,13 +1414,13 @@
       <c r="D39" s="4">
         <v>12.01</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="26" t="s">
         <v>50</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="4" t="s">
-        <v>75</v>
+      <c r="H39" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1433,7 +1447,7 @@
       </c>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="16" t="s">
         <v>55</v>
       </c>
@@ -1443,12 +1457,12 @@
       <c r="D42" s="7">
         <v>12.08</v>
       </c>
-      <c r="E42" s="28" t="s">
+      <c r="E42" s="27" t="s">
         <v>54</v>
       </c>
       <c r="F42" s="7"/>
-      <c r="H42" s="16" t="s">
-        <v>76</v>
+      <c r="H42" s="28" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1460,12 +1474,12 @@
       <c r="D43" s="4">
         <v>12.11</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E43" s="23" t="s">
         <v>58</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
+      <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
@@ -1485,7 +1499,7 @@
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
+      <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
@@ -1505,7 +1519,7 @@
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/CAIS117-F23/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3396760B-5991-834C-A7C0-F6C4B26348B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0081871B-D7C6-AF46-B3A0-7D6FB68374B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11920" yWindow="500" windowWidth="16880" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,9 +113,6 @@
     <t xml:space="preserve">How computers work </t>
   </si>
   <si>
-    <t>Welcome - Ice breakers, Learning goals, Worries, What is CS</t>
-  </si>
-  <si>
     <t>Strings and string methods</t>
   </si>
   <si>
@@ -270,6 +267,9 @@
   </si>
   <si>
     <t>proj-prototypeII, cfg03</t>
+  </si>
+  <si>
+    <t>Welcome - Who are We? What is coding?</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -511,9 +511,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -740,7 +737,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -779,7 +776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B2" s="6"/>
       <c r="C2" s="4" t="s">
         <v>7</v>
@@ -788,11 +785,11 @@
         <v>9.06</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="5"/>
     </row>
@@ -809,15 +806,15 @@
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>9</v>
@@ -830,7 +827,7 @@
       </c>
       <c r="F4" s="7"/>
       <c r="H4" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -858,10 +855,10 @@
         <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -901,7 +898,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -910,14 +907,14 @@
         <v>9.2200000000000006</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -941,7 +938,7 @@
         <v>9.27</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="16"/>
@@ -955,19 +952,19 @@
         <v>9.2899999999999991</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -976,12 +973,12 @@
         <v>10.02</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -992,7 +989,7 @@
         <v>10.039999999999999</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1007,14 +1004,14 @@
         <v>10.06</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1039,7 +1036,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>7</v>
@@ -1048,10 +1045,10 @@
         <v>10.11</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1063,13 +1060,13 @@
         <v>10.130000000000001</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1080,7 +1077,7 @@
         <v>10.16</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1094,7 +1091,7 @@
         <v>10.18</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1109,17 +1106,17 @@
         <v>10.199999999999999</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>9</v>
@@ -1128,16 +1125,16 @@
         <v>10.23</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" s="7"/>
       <c r="H22" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>7</v>
@@ -1146,16 +1143,16 @@
         <v>10.25</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" s="7"/>
-      <c r="H23" s="31" t="s">
-        <v>77</v>
+      <c r="H23" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>8</v>
@@ -1164,10 +1161,10 @@
         <v>10.27</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H24" s="8"/>
     </row>
@@ -1180,7 +1177,7 @@
         <v>10.3</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -1195,7 +1192,7 @@
         <v>11.01</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -1210,14 +1207,14 @@
         <v>11.03</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1228,7 +1225,7 @@
         <v>11.06</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" s="7"/>
     </row>
@@ -1242,7 +1239,7 @@
         <v>11.08</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -1270,7 +1267,7 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>9</v>
@@ -1279,12 +1276,12 @@
         <v>11.13</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1296,7 +1293,7 @@
         <v>11.15</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -1310,12 +1307,12 @@
         <v>11.17</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1326,7 +1323,7 @@
         <v>11.2</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" s="28"/>
     </row>
@@ -1344,11 +1341,11 @@
         <v>11.22</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="32"/>
+      <c r="H35" s="31"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
@@ -1379,7 +1376,7 @@
         <v>11.27</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -1387,7 +1384,7 @@
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>7</v>
@@ -1396,12 +1393,12 @@
         <v>11.29</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1415,12 +1412,12 @@
         <v>12.01</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1431,7 +1428,7 @@
         <v>12.04</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F40" s="7"/>
     </row>
@@ -1443,13 +1440,13 @@
         <v>12.06</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>8</v>
@@ -1458,11 +1455,11 @@
         <v>12.08</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F42" s="7"/>
       <c r="H42" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1475,7 +1472,7 @@
         <v>12.11</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -1495,7 +1492,7 @@
         <v>12.13</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -1515,7 +1512,7 @@
         <v>12.15</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/CAIS117-F23/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0081871B-D7C6-AF46-B3A0-7D6FB68374B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FE9316-9944-4748-95D8-095CB180096F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11920" yWindow="500" windowWidth="16880" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -212,9 +212,6 @@
     <t>hw01</t>
   </si>
   <si>
-    <t>hw00</t>
-  </si>
-  <si>
     <t>hw02</t>
   </si>
   <si>
@@ -270,6 +267,60 @@
   </si>
   <si>
     <t>Welcome - Who are We? What is coding?</t>
+  </si>
+  <si>
+    <t>Ch 1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ch 1.1, 1.6, 1.7 </t>
+  </si>
+  <si>
+    <t>Ch 1.2, 2.1, 2.2</t>
+  </si>
+  <si>
+    <t>Ch 2.3, 2.4</t>
+  </si>
+  <si>
+    <t>Ch 2.5, 2.6, 2.7</t>
+  </si>
+  <si>
+    <t>Ch 4</t>
+  </si>
+  <si>
+    <t>Ch 3.1, 3.2, 7</t>
+  </si>
+  <si>
+    <t>Ch 5</t>
+  </si>
+  <si>
+    <t>Ch 2.8, 2.10</t>
+  </si>
+  <si>
+    <t>Ch 6</t>
+  </si>
+  <si>
+    <t>Ch 8.1 - 8.11</t>
+  </si>
+  <si>
+    <t>Ch 8.12 - 8.15</t>
+  </si>
+  <si>
+    <t>Ch 14</t>
+  </si>
+  <si>
+    <t>Ch 9</t>
+  </si>
+  <si>
+    <t>Ch 17.4</t>
+  </si>
+  <si>
+    <t>Ch 12</t>
+  </si>
+  <si>
+    <t>Ch 16</t>
+  </si>
+  <si>
+    <t>Ch 10</t>
   </si>
 </sst>
 </file>
@@ -736,8 +787,8 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -745,7 +796,7 @@
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="34.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" customWidth="1"/>
     <col min="8" max="8" width="19.1640625" style="29" customWidth="1"/>
   </cols>
@@ -785,12 +836,10 @@
         <v>9.06</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -804,13 +853,13 @@
       <c r="E3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="G3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="16" t="s">
@@ -825,9 +874,11 @@
       <c r="E4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="H4" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -841,7 +892,9 @@
       <c r="E5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
@@ -854,8 +907,11 @@
       <c r="E6" s="8" t="s">
         <v>21</v>
       </c>
+      <c r="F6" s="16" t="s">
+        <v>81</v>
+      </c>
       <c r="G6" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>58</v>
@@ -892,7 +948,9 @@
       <c r="E8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
     </row>
@@ -911,10 +969,10 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -928,7 +986,9 @@
       <c r="E10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="7" t="s">
@@ -940,7 +1000,9 @@
       <c r="E11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -956,10 +1018,10 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -978,7 +1040,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -991,7 +1053,9 @@
       <c r="E14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
     </row>
@@ -1006,12 +1070,14 @@
       <c r="E15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="G15" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1048,7 +1114,7 @@
         <v>30</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1062,11 +1128,14 @@
       <c r="E18" s="24" t="s">
         <v>31</v>
       </c>
+      <c r="F18" s="16" t="s">
+        <v>87</v>
+      </c>
       <c r="G18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1079,7 +1148,9 @@
       <c r="E19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5"/>
     </row>
@@ -1093,7 +1164,9 @@
       <c r="E20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
     </row>
@@ -1108,10 +1181,12 @@
       <c r="E21" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1129,7 +1204,7 @@
       </c>
       <c r="F22" s="7"/>
       <c r="H22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1147,12 +1222,12 @@
       </c>
       <c r="F23" s="7"/>
       <c r="H23" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>8</v>
@@ -1164,7 +1239,7 @@
         <v>56</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H24" s="8"/>
     </row>
@@ -1179,7 +1254,9 @@
       <c r="E25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
     </row>
@@ -1194,7 +1271,9 @@
       <c r="E26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5"/>
     </row>
@@ -1209,12 +1288,14 @@
       <c r="E27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="G27" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1227,7 +1308,9 @@
       <c r="E28" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="16"/>
@@ -1241,7 +1324,9 @@
       <c r="E29" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="8"/>
     </row>
@@ -1281,7 +1366,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1295,7 +1380,9 @@
       <c r="E32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="G32" s="4"/>
       <c r="H32" s="5"/>
     </row>
@@ -1309,10 +1396,12 @@
       <c r="E33" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="G33" s="4"/>
       <c r="H33" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1324,6 +1413,9 @@
       </c>
       <c r="E34" s="8" t="s">
         <v>45</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="H34" s="28"/>
     </row>
@@ -1378,7 +1470,9 @@
       <c r="E37" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="G37" s="4"/>
       <c r="H37" s="5"/>
     </row>
@@ -1398,7 +1492,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1417,7 +1511,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1430,7 +1524,9 @@
       <c r="E40" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="7"/>
+      <c r="F40" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="7" t="s">
@@ -1459,7 +1555,7 @@
       </c>
       <c r="F42" s="7"/>
       <c r="H42" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/CAIS117-F23/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/CAIS117-F23/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FE9316-9944-4748-95D8-095CB180096F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD28575-B4F1-4043-90C5-8D6B94F90121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11920" yWindow="500" windowWidth="16880" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -257,9 +257,6 @@
     <t>hw07</t>
   </si>
   <si>
-    <t>hw02, cfg01</t>
-  </si>
-  <si>
     <t>cfg02</t>
   </si>
   <si>
@@ -321,6 +318,9 @@
   </si>
   <si>
     <t>Ch 10</t>
+  </si>
+  <si>
+    <t>cfg01</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -535,9 +535,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -787,8 +784,8 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -798,7 +795,7 @@
     <col min="5" max="5" width="34.6640625" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -836,7 +833,7 @@
         <v>9.06</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -854,7 +851,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>58</v>
@@ -875,9 +872,9 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>64</v>
       </c>
     </row>
@@ -893,7 +890,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -908,7 +905,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>59</v>
@@ -935,7 +932,7 @@
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="30"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="14"/>
@@ -949,45 +946,48 @@
         <v>22</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="B9" s="14"/>
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="4">
         <v>9.2200000000000006</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="4"/>
+      <c r="E9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="G9" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="7">
         <v>9.25</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>83</v>
+      <c r="E10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="H10" s="27" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1001,7 +1001,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" s="16"/>
     </row>
@@ -1013,7 +1013,7 @@
       <c r="D12" s="7">
         <v>9.2899999999999991</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="23" t="s">
         <v>55</v>
       </c>
       <c r="F12" s="7"/>
@@ -1054,7 +1054,7 @@
         <v>28</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
@@ -1071,7 +1071,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>62</v>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="30"/>
+      <c r="H16" s="29"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="16" t="s">
@@ -1125,11 +1125,11 @@
       <c r="D18" s="7">
         <v>10.130000000000001</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="23" t="s">
         <v>31</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>63</v>
@@ -1149,7 +1149,7 @@
         <v>32</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5"/>
@@ -1165,7 +1165,7 @@
         <v>33</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
@@ -1178,11 +1178,11 @@
       <c r="D21" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>34</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5" t="s">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="F23" s="7"/>
       <c r="H23" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1235,7 +1235,7 @@
       <c r="D24" s="7">
         <v>10.27</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="24" t="s">
         <v>56</v>
       </c>
       <c r="G24" s="7" t="s">
@@ -1255,7 +1255,7 @@
         <v>36</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
@@ -1272,7 +1272,7 @@
         <v>37</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5"/>
@@ -1289,7 +1289,7 @@
         <v>38</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>4</v>
@@ -1309,7 +1309,7 @@
         <v>39</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1325,7 +1325,7 @@
         <v>40</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="8"/>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="30"/>
+      <c r="H30" s="29"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="16" t="s">
@@ -1381,7 +1381,7 @@
         <v>42</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="5"/>
@@ -1397,7 +1397,7 @@
         <v>43</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="5" t="s">
@@ -1415,9 +1415,9 @@
         <v>45</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H34" s="28"/>
+        <v>92</v>
+      </c>
+      <c r="H34" s="27"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="31"/>
+      <c r="H35" s="30"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="30"/>
+      <c r="H36" s="29"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="16"/>
@@ -1467,11 +1467,11 @@
       <c r="D37" s="4">
         <v>11.27</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="22" t="s">
         <v>46</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="5"/>
@@ -1505,7 +1505,7 @@
       <c r="D39" s="4">
         <v>12.01</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="25" t="s">
         <v>49</v>
       </c>
       <c r="F39" s="4"/>
@@ -1525,7 +1525,7 @@
         <v>47</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1550,12 +1550,12 @@
       <c r="D42" s="7">
         <v>12.08</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="26" t="s">
         <v>53</v>
       </c>
       <c r="F42" s="7"/>
-      <c r="H42" s="28" t="s">
-        <v>76</v>
+      <c r="H42" s="27" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1567,7 +1567,7 @@
       <c r="D43" s="4">
         <v>12.11</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="22" t="s">
         <v>57</v>
       </c>
       <c r="F43" s="4"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/CAIS117-F23/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD28575-B4F1-4043-90C5-8D6B94F90121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC12474-B195-4D41-B920-7FCB56F5004A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11920" yWindow="500" windowWidth="16880" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -785,7 +785,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1101,21 +1101,20 @@
       <c r="H16" s="29"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="16" t="s">
-        <v>52</v>
-      </c>
+      <c r="B17" s="16"/>
       <c r="C17" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="7">
         <v>10.11</v>
       </c>
-      <c r="E17" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>66</v>
-      </c>
+      <c r="E17" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="16"/>
@@ -1128,7 +1127,7 @@
       <c r="E18" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="4" t="s">
         <v>86</v>
       </c>
       <c r="G18" s="7" t="s">
@@ -1139,20 +1138,25 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="C19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="4">
         <v>10.16</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>32</v>
+      <c r="E19" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>86</v>
       </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="4" t="s">
@@ -1162,10 +1166,10 @@
         <v>10.18</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/CAIS117-F23/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC12474-B195-4D41-B920-7FCB56F5004A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4211E3CB-938D-C945-B1CD-04A9F4B61175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11920" yWindow="500" windowWidth="16880" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3380" yWindow="500" windowWidth="16880" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -260,9 +260,6 @@
     <t>cfg02</t>
   </si>
   <si>
-    <t>proj-prototypeII, cfg03</t>
-  </si>
-  <si>
     <t>Welcome - Who are We? What is coding?</t>
   </si>
   <si>
@@ -321,6 +318,12 @@
   </si>
   <si>
     <t>cfg01</t>
+  </si>
+  <si>
+    <t>cfg03</t>
+  </si>
+  <si>
+    <t>proj-prototypeII</t>
   </si>
 </sst>
 </file>
@@ -784,8 +787,8 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -833,7 +836,7 @@
         <v>9.06</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -851,7 +854,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>58</v>
@@ -872,7 +875,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>64</v>
@@ -890,7 +893,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -905,7 +908,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>59</v>
@@ -946,7 +949,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
@@ -963,7 +966,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>60</v>
@@ -987,7 +990,7 @@
       </c>
       <c r="F10" s="7"/>
       <c r="H10" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1001,7 +1004,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" s="16"/>
     </row>
@@ -1054,7 +1057,7 @@
         <v>28</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
@@ -1071,7 +1074,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>62</v>
@@ -1112,7 +1115,7 @@
         <v>33</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H17" s="8"/>
     </row>
@@ -1128,7 +1131,7 @@
         <v>31</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>63</v>
@@ -1151,7 +1154,7 @@
         <v>30</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5" t="s">
@@ -1169,7 +1172,7 @@
         <v>32</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
@@ -1186,7 +1189,7 @@
         <v>34</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5" t="s">
@@ -1259,7 +1262,7 @@
         <v>36</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
@@ -1276,7 +1279,7 @@
         <v>37</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5"/>
@@ -1293,7 +1296,7 @@
         <v>38</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>4</v>
@@ -1313,7 +1316,7 @@
         <v>39</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1329,7 +1332,7 @@
         <v>40</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="8"/>
@@ -1385,7 +1388,7 @@
         <v>42</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="5"/>
@@ -1401,7 +1404,7 @@
         <v>43</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="5" t="s">
@@ -1419,7 +1422,7 @@
         <v>45</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H34" s="27"/>
     </row>
@@ -1475,10 +1478,12 @@
         <v>46</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G37" s="4"/>
-      <c r="H37" s="5"/>
+      <c r="H37" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="16" t="s">
@@ -1514,9 +1519,7 @@
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="5" t="s">
-        <v>72</v>
-      </c>
+      <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="7" t="s">
@@ -1529,7 +1532,7 @@
         <v>47</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1543,6 +1546,9 @@
         <v>48</v>
       </c>
       <c r="F41" s="7"/>
+      <c r="H41" s="28" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="16" t="s">
@@ -1559,7 +1565,7 @@
       </c>
       <c r="F42" s="7"/>
       <c r="H42" s="27" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1596,7 +1602,9 @@
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="5"/>
+      <c r="H44" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
@@ -1616,9 +1624,7 @@
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="E46" s="8"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/CAIS117-F23/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4211E3CB-938D-C945-B1CD-04A9F4B61175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D316DB0A-673E-6F44-8A8B-04CAA29AB49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3380" yWindow="500" windowWidth="16880" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -567,6 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -788,7 +789,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1358,19 +1359,19 @@
       <c r="H30" s="29"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="16" t="s">
-        <v>52</v>
-      </c>
+      <c r="B31" s="16"/>
       <c r="C31" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="4">
         <v>11.13</v>
       </c>
-      <c r="E31" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="4"/>
+      <c r="E31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="G31" s="4"/>
       <c r="H31" s="5" t="s">
         <v>68</v>
@@ -1384,8 +1385,8 @@
       <c r="D32" s="4">
         <v>11.15</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>42</v>
+      <c r="E32" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>90</v>
@@ -1394,18 +1395,19 @@
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="C33" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="4">
         <v>11.17</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="E33" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="5" t="s">
         <v>71</v>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/CAIS117-F23/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D316DB0A-673E-6F44-8A8B-04CAA29AB49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5509D161-686E-6946-A056-DE3107FA48C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3380" yWindow="500" windowWidth="16880" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -170,9 +170,6 @@
     <t>Paper prototyping</t>
   </si>
   <si>
-    <t xml:space="preserve">Working with files </t>
-  </si>
-  <si>
     <t>Introduction to algorithms</t>
   </si>
   <si>
@@ -239,91 +236,91 @@
     <t>ic04</t>
   </si>
   <si>
+    <t>ic06</t>
+  </si>
+  <si>
+    <t>exam</t>
+  </si>
+  <si>
+    <t>proj-prototypeI</t>
+  </si>
+  <si>
+    <t>hw07</t>
+  </si>
+  <si>
+    <t>cfg02</t>
+  </si>
+  <si>
+    <t>Welcome - Who are We? What is coding?</t>
+  </si>
+  <si>
+    <t>Ch 1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ch 1.1, 1.6, 1.7 </t>
+  </si>
+  <si>
+    <t>Ch 1.2, 2.1, 2.2</t>
+  </si>
+  <si>
+    <t>Ch 2.3, 2.4</t>
+  </si>
+  <si>
+    <t>Ch 2.5, 2.6, 2.7</t>
+  </si>
+  <si>
+    <t>Ch 4</t>
+  </si>
+  <si>
+    <t>Ch 3.1, 3.2, 7</t>
+  </si>
+  <si>
+    <t>Ch 5</t>
+  </si>
+  <si>
+    <t>Ch 2.8, 2.10</t>
+  </si>
+  <si>
+    <t>Ch 6</t>
+  </si>
+  <si>
+    <t>Ch 8.1 - 8.11</t>
+  </si>
+  <si>
+    <t>Ch 8.12 - 8.15</t>
+  </si>
+  <si>
+    <t>Ch 14</t>
+  </si>
+  <si>
+    <t>Ch 9</t>
+  </si>
+  <si>
+    <t>Ch 17.4</t>
+  </si>
+  <si>
+    <t>Ch 16</t>
+  </si>
+  <si>
+    <t>Ch 10</t>
+  </si>
+  <si>
+    <t>cfg01</t>
+  </si>
+  <si>
+    <t>cfg03</t>
+  </si>
+  <si>
+    <t>proj-prototypeII</t>
+  </si>
+  <si>
+    <t>Graphics</t>
+  </si>
+  <si>
+    <t>proj-proposal</t>
+  </si>
+  <si>
     <t>ic05</t>
-  </si>
-  <si>
-    <t>ic06</t>
-  </si>
-  <si>
-    <t>exam</t>
-  </si>
-  <si>
-    <t>proj-proposal</t>
-  </si>
-  <si>
-    <t>proj-prototypeI</t>
-  </si>
-  <si>
-    <t>hw07</t>
-  </si>
-  <si>
-    <t>cfg02</t>
-  </si>
-  <si>
-    <t>Welcome - Who are We? What is coding?</t>
-  </si>
-  <si>
-    <t>Ch 1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ch 1.1, 1.6, 1.7 </t>
-  </si>
-  <si>
-    <t>Ch 1.2, 2.1, 2.2</t>
-  </si>
-  <si>
-    <t>Ch 2.3, 2.4</t>
-  </si>
-  <si>
-    <t>Ch 2.5, 2.6, 2.7</t>
-  </si>
-  <si>
-    <t>Ch 4</t>
-  </si>
-  <si>
-    <t>Ch 3.1, 3.2, 7</t>
-  </si>
-  <si>
-    <t>Ch 5</t>
-  </si>
-  <si>
-    <t>Ch 2.8, 2.10</t>
-  </si>
-  <si>
-    <t>Ch 6</t>
-  </si>
-  <si>
-    <t>Ch 8.1 - 8.11</t>
-  </si>
-  <si>
-    <t>Ch 8.12 - 8.15</t>
-  </si>
-  <si>
-    <t>Ch 14</t>
-  </si>
-  <si>
-    <t>Ch 9</t>
-  </si>
-  <si>
-    <t>Ch 17.4</t>
-  </si>
-  <si>
-    <t>Ch 12</t>
-  </si>
-  <si>
-    <t>Ch 16</t>
-  </si>
-  <si>
-    <t>Ch 10</t>
-  </si>
-  <si>
-    <t>cfg01</t>
-  </si>
-  <si>
-    <t>cfg03</t>
-  </si>
-  <si>
-    <t>proj-prototypeII</t>
   </si>
 </sst>
 </file>
@@ -445,7 +442,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,6 +477,12 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.14999847407452621"/>
         <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor rgb="FFC9DAF8"/>
       </patternFill>
     </fill>
   </fills>
@@ -567,7 +570,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,7 +792,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -837,7 +840,7 @@
         <v>9.06</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -855,16 +858,16 @@
         <v>25</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>9</v>
@@ -876,10 +879,10 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -894,7 +897,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -909,13 +912,13 @@
         <v>21</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -950,7 +953,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
@@ -967,18 +970,18 @@
         <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>9</v>
@@ -987,11 +990,11 @@
         <v>9.25</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="7"/>
       <c r="H10" s="27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1005,7 +1008,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G11" s="16"/>
     </row>
@@ -1018,19 +1021,19 @@
         <v>9.2899999999999991</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -1044,7 +1047,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1058,7 +1061,7 @@
         <v>28</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
@@ -1075,13 +1078,13 @@
         <v>29</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1116,7 +1119,7 @@
         <v>33</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H17" s="8"/>
     </row>
@@ -1132,18 +1135,18 @@
         <v>31</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>9</v>
@@ -1155,11 +1158,11 @@
         <v>30</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1173,7 +1176,7 @@
         <v>32</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
@@ -1190,16 +1193,16 @@
         <v>34</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>9</v>
@@ -1212,12 +1215,12 @@
       </c>
       <c r="F22" s="7"/>
       <c r="H22" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>7</v>
@@ -1226,16 +1229,16 @@
         <v>10.25</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" s="7"/>
       <c r="H23" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>8</v>
@@ -1244,10 +1247,10 @@
         <v>10.27</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H24" s="8"/>
     </row>
@@ -1263,7 +1266,7 @@
         <v>36</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
@@ -1280,7 +1283,7 @@
         <v>37</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5"/>
@@ -1297,13 +1300,13 @@
         <v>38</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1317,7 +1320,7 @@
         <v>39</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1333,7 +1336,7 @@
         <v>40</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="8"/>
@@ -1367,15 +1370,13 @@
         <v>11.13</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G31" s="4"/>
-      <c r="H31" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="16"/>
@@ -1386,17 +1387,17 @@
         <v>11.15</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>8</v>
@@ -1404,29 +1405,34 @@
       <c r="D33" s="4">
         <v>11.17</v>
       </c>
-      <c r="E33" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="G33" s="4"/>
       <c r="H33" s="5" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="C34" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="7">
         <v>11.2</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H34" s="27"/>
+      <c r="E34" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="31"/>
+      <c r="H34" s="27" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
@@ -1442,7 +1448,7 @@
         <v>11.22</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
@@ -1477,19 +1483,19 @@
         <v>11.27</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>7</v>
@@ -1503,7 +1509,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1517,7 +1523,7 @@
         <v>12.01</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -1531,10 +1537,10 @@
         <v>12.04</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1545,16 +1551,16 @@
         <v>12.06</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F41" s="7"/>
       <c r="H41" s="28" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>8</v>
@@ -1563,11 +1569,11 @@
         <v>12.08</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F42" s="7"/>
       <c r="H42" s="27" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1580,7 +1586,7 @@
         <v>12.11</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -1600,7 +1606,7 @@
         <v>12.13</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -1622,7 +1628,7 @@
         <v>12.15</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/CAIS117-F23/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5509D161-686E-6946-A056-DE3107FA48C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B6118F-0662-E943-A6CD-6830869C0E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3380" yWindow="500" windowWidth="16880" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -792,7 +792,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1396,9 +1396,7 @@
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="B33" s="16" t="s">
-        <v>51</v>
-      </c>
+      <c r="B33" s="16"/>
       <c r="C33" s="4" t="s">
         <v>8</v>
       </c>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/CAIS117-F23/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B6118F-0662-E943-A6CD-6830869C0E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D40F8A2-F8AE-4D4D-A3AF-D352B1D75293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3380" yWindow="500" windowWidth="16880" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -158,9 +158,6 @@
     <t>Classes pt 3: Inheritance</t>
   </si>
   <si>
-    <t>Python packages and graphics</t>
-  </si>
-  <si>
     <t>Animation</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>ic04</t>
   </si>
   <si>
-    <t>ic06</t>
-  </si>
-  <si>
     <t>exam</t>
   </si>
   <si>
@@ -321,6 +315,9 @@
   </si>
   <si>
     <t>ic05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working with files </t>
   </si>
 </sst>
 </file>
@@ -442,7 +439,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,6 +482,12 @@
         <bgColor rgb="FFC9DAF8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -498,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -571,6 +574,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,8 +799,8 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -840,7 +848,7 @@
         <v>9.06</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -858,16 +866,16 @@
         <v>25</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>9</v>
@@ -879,10 +887,10 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -897,7 +905,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -912,13 +920,13 @@
         <v>21</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -953,7 +961,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
@@ -966,22 +974,22 @@
       <c r="D9" s="4">
         <v>9.2200000000000006</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>78</v>
+      <c r="F9" s="33" t="s">
+        <v>76</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>9</v>
@@ -990,11 +998,11 @@
         <v>9.25</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7"/>
       <c r="H10" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1008,7 +1016,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G11" s="16"/>
     </row>
@@ -1021,19 +1029,19 @@
         <v>9.2899999999999991</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -1047,7 +1055,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1061,7 +1069,7 @@
         <v>28</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
@@ -1078,13 +1086,13 @@
         <v>29</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1119,7 +1127,7 @@
         <v>33</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H17" s="8"/>
     </row>
@@ -1134,19 +1142,19 @@
       <c r="E18" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>82</v>
+      <c r="F18" s="34" t="s">
+        <v>80</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>9</v>
@@ -1158,11 +1166,11 @@
         <v>30</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1176,7 +1184,7 @@
         <v>32</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
@@ -1193,16 +1201,16 @@
         <v>34</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>9</v>
@@ -1215,12 +1223,12 @@
       </c>
       <c r="F22" s="7"/>
       <c r="H22" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>7</v>
@@ -1229,16 +1237,16 @@
         <v>10.25</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F23" s="7"/>
       <c r="H23" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>8</v>
@@ -1247,10 +1255,10 @@
         <v>10.27</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H24" s="8"/>
     </row>
@@ -1266,7 +1274,7 @@
         <v>36</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
@@ -1283,7 +1291,7 @@
         <v>37</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5"/>
@@ -1300,13 +1308,13 @@
         <v>38</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1320,7 +1328,7 @@
         <v>39</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1336,7 +1344,7 @@
         <v>40</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="8"/>
@@ -1370,10 +1378,10 @@
         <v>11.13</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="5"/>
@@ -1387,10 +1395,10 @@
         <v>11.15</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="5"/>
@@ -1404,19 +1412,19 @@
         <v>11.17</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>9</v>
@@ -1425,11 +1433,11 @@
         <v>11.2</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" s="31"/>
       <c r="H34" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1446,7 +1454,7 @@
         <v>11.22</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
@@ -1481,34 +1489,30 @@
         <v>11.27</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="16" t="s">
-        <v>51</v>
-      </c>
+      <c r="B38" s="16"/>
       <c r="C38" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="4">
         <v>11.29</v>
       </c>
-      <c r="E38" s="21" t="s">
-        <v>41</v>
+      <c r="E38" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="16" t="s">
@@ -1521,7 +1525,7 @@
         <v>12.01</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -1535,10 +1539,10 @@
         <v>12.04</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1549,16 +1553,16 @@
         <v>12.06</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F41" s="7"/>
       <c r="H41" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>8</v>
@@ -1567,11 +1571,11 @@
         <v>12.08</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F42" s="7"/>
       <c r="H42" s="27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1584,7 +1588,7 @@
         <v>12.11</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -1604,7 +1608,7 @@
         <v>12.13</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -1626,7 +1630,7 @@
         <v>12.15</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/CAIS117-F23/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D40F8A2-F8AE-4D4D-A3AF-D352B1D75293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC928ED7-A72B-A547-9036-09D7B0A2AA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3380" yWindow="500" windowWidth="16880" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -317,7 +317,7 @@
     <t>ic05</t>
   </si>
   <si>
-    <t xml:space="preserve">Working with files </t>
+    <t>Working with files</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,6 +488,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -501,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -578,7 +584,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,8 +808,8 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1142,7 +1151,7 @@
       <c r="E18" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="7" t="s">
         <v>80</v>
       </c>
       <c r="G18" s="7" t="s">
@@ -1507,10 +1516,12 @@
       <c r="D38" s="4">
         <v>11.29</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F38" s="4"/>
+      <c r="E38" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="35" t="s">
+        <v>87</v>
+      </c>
       <c r="G38" s="4"/>
       <c r="H38" s="5"/>
     </row>
@@ -1539,11 +1550,9 @@
         <v>12.04</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>87</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="7" t="s">

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/CAIS117-F23/website/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/CAIS117-F23/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC928ED7-A72B-A547-9036-09D7B0A2AA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC7765F-62DA-F046-874A-19D4BA9FC059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="500" windowWidth="16880" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51700" yWindow="2700" windowWidth="16880" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -173,9 +173,6 @@
     <t>Handling exceptions</t>
   </si>
   <si>
-    <t>Advanced Topics - HCI</t>
-  </si>
-  <si>
     <t>Final project workshop</t>
   </si>
   <si>
@@ -200,9 +197,6 @@
     <t xml:space="preserve">Extra Credit Midterm </t>
   </si>
   <si>
-    <t>Wrap-up</t>
-  </si>
-  <si>
     <t>hw01</t>
   </si>
   <si>
@@ -318,6 +312,12 @@
   </si>
   <si>
     <t>Working with files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Project Work Session </t>
+  </si>
+  <si>
+    <t>Advanced Topics - Visual Analytics</t>
   </si>
 </sst>
 </file>
@@ -809,7 +809,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -857,7 +857,7 @@
         <v>9.06</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -875,16 +875,16 @@
         <v>25</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>9</v>
@@ -896,10 +896,10 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -914,7 +914,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -929,13 +929,13 @@
         <v>21</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -970,7 +970,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
@@ -987,18 +987,18 @@
         <v>23</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>9</v>
@@ -1007,11 +1007,11 @@
         <v>9.25</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7"/>
       <c r="H10" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1025,7 +1025,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G11" s="16"/>
     </row>
@@ -1038,19 +1038,19 @@
         <v>9.2899999999999991</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -1064,7 +1064,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1078,7 +1078,7 @@
         <v>28</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
@@ -1095,13 +1095,13 @@
         <v>29</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1136,7 +1136,7 @@
         <v>33</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H17" s="8"/>
     </row>
@@ -1152,18 +1152,18 @@
         <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>9</v>
@@ -1175,11 +1175,11 @@
         <v>30</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1193,7 +1193,7 @@
         <v>32</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
@@ -1210,16 +1210,16 @@
         <v>34</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>9</v>
@@ -1232,12 +1232,12 @@
       </c>
       <c r="F22" s="7"/>
       <c r="H22" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>7</v>
@@ -1246,16 +1246,16 @@
         <v>10.25</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7"/>
       <c r="H23" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>8</v>
@@ -1264,10 +1264,10 @@
         <v>10.27</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H24" s="8"/>
     </row>
@@ -1283,7 +1283,7 @@
         <v>36</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
@@ -1300,7 +1300,7 @@
         <v>37</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="5"/>
@@ -1317,13 +1317,13 @@
         <v>38</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1337,7 +1337,7 @@
         <v>39</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1353,7 +1353,7 @@
         <v>40</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="8"/>
@@ -1387,10 +1387,10 @@
         <v>11.13</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="5"/>
@@ -1407,7 +1407,7 @@
         <v>41</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="5"/>
@@ -1424,16 +1424,16 @@
         <v>42</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>9</v>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="F34" s="31"/>
       <c r="H34" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1463,7 +1463,7 @@
         <v>11.22</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
@@ -1501,11 +1501,11 @@
         <v>44</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1520,7 +1520,7 @@
         <v>45</v>
       </c>
       <c r="F38" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="5"/>
@@ -1536,7 +1536,7 @@
         <v>12.01</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -1550,7 +1550,7 @@
         <v>12.04</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F40" s="7"/>
     </row>
@@ -1562,16 +1562,16 @@
         <v>12.06</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="F41" s="7"/>
       <c r="H41" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>8</v>
@@ -1580,24 +1580,26 @@
         <v>12.08</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F42" s="7"/>
       <c r="H42" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="16"/>
-      <c r="B43" s="7"/>
+      <c r="B43" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="C43" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="4">
         <v>12.11</v>
       </c>
-      <c r="E43" s="22" t="s">
-        <v>55</v>
+      <c r="E43" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -1617,7 +1619,7 @@
         <v>12.13</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -1639,7 +1641,7 @@
         <v>12.15</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
